--- a/analysis/data/Run Compares by Game.xlsx
+++ b/analysis/data/Run Compares by Game.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Activity_Data\Mancala_github\MancalaGames\analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823AD570-4758-41CF-B25A-DA313BFCD23F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581EC46E-E051-455C-B10D-DF173A43D735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="1095" windowWidth="25410" windowHeight="10785" xr2:uid="{EE7FA10B-0919-43FC-ACD9-CA0644430879}"/>
+    <workbookView xWindow="29190" yWindow="390" windowWidth="25410" windowHeight="14265" xr2:uid="{EE7FA10B-0919-43FC-ACD9-CA0644430879}"/>
   </bookViews>
   <sheets>
     <sheet name="ai2_23" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="87">
   <si>
     <t>LOOPED</t>
   </si>
@@ -158,12 +158,6 @@
     <t>uncl = last mover</t>
   </si>
   <si>
-    <t>Depouiller</t>
-  </si>
-  <si>
-    <t>with minimaxer</t>
-  </si>
-  <si>
     <t>Bule Perga - Done</t>
   </si>
   <si>
@@ -171,24 +165,6 @@
   </si>
   <si>
     <t>Dabuda - Done</t>
-  </si>
-  <si>
-    <t>Winner Starts Rnds</t>
-  </si>
-  <si>
-    <t>Loser Starts Rnds</t>
-  </si>
-  <si>
-    <t>5 rounds to win</t>
-  </si>
-  <si>
-    <t>6 rounds to win</t>
-  </si>
-  <si>
-    <t>Lstart5rnds</t>
-  </si>
-  <si>
-    <t>Lstart5rdsOppCapt</t>
   </si>
   <si>
     <t>random zero start</t>
@@ -301,6 +277,26 @@
   </si>
   <si>
     <t>30 minute run, default depth is 3</t>
+  </si>
+  <si>
+    <t>Bao fix AI diff 2</t>
+  </si>
+  <si>
+    <t>Bao fix AI diff 2 w/end_all</t>
+  </si>
+  <si>
+    <t>Bao but fill from right (code changed)</t>
+  </si>
+  <si>
+    <t>Note that now 50% + 2% instead of 50% - 2% as in orig test;
+the extra seeds allows for an opening move capture (for each round)  by the player that sows first towards the partially filled hole!!
+Hole fill does not exactly follow Russ's description, fill from LOSER's left</t>
+  </si>
+  <si>
+    <t>seeds/board size =&gt; unfair combo</t>
+  </si>
+  <si>
+    <t>round_fill SHORTEN_ALL was implemented wrong</t>
   </si>
 </sst>
 </file>
@@ -806,7 +802,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -842,7 +838,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -853,15 +848,15 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -909,17 +904,7 @@
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="28">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="19">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -979,82 +964,6 @@
           <color rgb="FF9C0006"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1151,22 +1060,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1553,13 +1446,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AC75"/>
+  <dimension ref="A1:AC67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X15" sqref="X15"/>
+      <selection pane="bottomRight" activeCell="X57" sqref="X57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1631,13 +1524,13 @@
         <v>18</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:24" s="4" customFormat="1" ht="15.75" collapsed="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
@@ -1976,7 +1869,7 @@
     </row>
     <row r="9" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -2040,12 +1933,12 @@
         <v>40000</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2110,8 +2003,8 @@
       </c>
     </row>
     <row r="11" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>80</v>
+      <c r="A11" s="13" t="s">
+        <v>72</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2149,13 +2042,13 @@
       <c r="M11">
         <v>57385</v>
       </c>
-      <c r="N11" s="15">
+      <c r="N11" s="14">
         <v>0.50101147289038206</v>
       </c>
-      <c r="O11" s="15">
+      <c r="O11" s="14">
         <v>0.41020050752349979</v>
       </c>
-      <c r="P11" s="15">
+      <c r="P11" s="14">
         <v>7.5000000000000002E-4</v>
       </c>
       <c r="Q11">
@@ -2174,8 +2067,8 @@
         <f t="shared" si="0"/>
         <v>140000</v>
       </c>
-      <c r="X11" s="14" t="s">
-        <v>79</v>
+      <c r="X11" s="13" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2248,7 +2141,7 @@
       <c r="P13" s="5">
         <v>0</v>
       </c>
-      <c r="Q13" s="17">
+      <c r="Q13" s="16">
         <v>3.28E-20</v>
       </c>
       <c r="R13" s="4">
@@ -2265,24 +2158,24 @@
         <v>40000</v>
       </c>
       <c r="X13" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
-      <c r="Q14" s="19"/>
+      <c r="Q14" s="9"/>
     </row>
     <row r="15" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="17">
         <v>68</v>
       </c>
       <c r="D15">
@@ -2336,17 +2229,17 @@
       <c r="T15" t="b">
         <v>1</v>
       </c>
-      <c r="V15" s="21">
+      <c r="V15" s="1">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2410,7 +2303,7 @@
         <v>100</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:29" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2433,7 +2326,7 @@
     </row>
     <row r="19" spans="1:29" s="4" customFormat="1" ht="15.75" collapsed="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B19" s="4">
         <v>80</v>
@@ -2492,6 +2385,9 @@
       <c r="V19" s="4">
         <f t="shared" si="1"/>
         <v>60000</v>
+      </c>
+      <c r="X19" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2499,7 +2395,7 @@
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
       <c r="V20" s="1">
-        <f t="shared" ref="V20:V52" si="2">SUM(B20:I20)</f>
+        <f t="shared" ref="V20:V56" si="2">SUM(B20:I20)</f>
         <v>0</v>
       </c>
     </row>
@@ -2571,7 +2467,7 @@
     </row>
     <row r="22" spans="1:29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B22" s="1">
         <v>110</v>
@@ -2637,7 +2533,7 @@
     </row>
     <row r="23" spans="1:29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B23" s="1">
         <v>296</v>
@@ -2703,7 +2599,7 @@
     </row>
     <row r="24" spans="1:29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B24" s="1">
         <v>144</v>
@@ -2769,7 +2665,7 @@
     </row>
     <row r="25" spans="1:29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
@@ -2833,12 +2729,12 @@
         <v>80000</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B26" s="1">
         <v>0</v>
@@ -2904,7 +2800,7 @@
     </row>
     <row r="27" spans="1:29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -2968,12 +2864,12 @@
         <v>80000</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
@@ -3039,7 +2935,7 @@
     </row>
     <row r="29" spans="1:29" ht="30.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B29" s="1">
         <v>165</v>
@@ -3102,24 +2998,24 @@
         <f t="shared" si="2"/>
         <v>100000</v>
       </c>
-      <c r="X29" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y29" s="16"/>
-      <c r="Z29" s="16"/>
-      <c r="AA29" s="16"/>
-      <c r="AB29" s="16"/>
-      <c r="AC29" s="16"/>
-    </row>
-    <row r="30" spans="1:29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="X29" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y29" s="20"/>
+      <c r="Z29" s="20"/>
+      <c r="AA29" s="20"/>
+      <c r="AB29" s="20"/>
+      <c r="AC29" s="20"/>
+    </row>
+    <row r="30" spans="1:29" ht="30.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B30" s="1">
-        <v>305</v>
+        <v>10543</v>
       </c>
       <c r="C30" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
@@ -3128,43 +3024,43 @@
         <v>0</v>
       </c>
       <c r="F30" s="1">
-        <v>13817</v>
+        <v>2354</v>
       </c>
       <c r="G30" s="1">
-        <v>17903</v>
+        <v>3756</v>
       </c>
       <c r="H30" s="1">
-        <v>16016</v>
+        <v>2962</v>
       </c>
       <c r="I30" s="1">
-        <v>11956</v>
+        <v>385</v>
       </c>
       <c r="J30" s="1">
-        <v>308</v>
+        <v>10543</v>
       </c>
       <c r="K30" s="1">
-        <v>0</v>
+        <v>2845</v>
       </c>
       <c r="L30" s="1">
-        <v>27972</v>
+        <v>3347</v>
       </c>
       <c r="M30" s="1">
-        <v>25773</v>
+        <v>2739</v>
       </c>
       <c r="N30" s="6">
-        <v>0.46860550827581499</v>
+        <v>0.35391773289626699</v>
       </c>
       <c r="O30" s="6">
-        <v>0.43176640085773599</v>
+        <v>0.28962673152162399</v>
       </c>
       <c r="P30" s="1">
         <v>0</v>
       </c>
       <c r="Q30" s="1">
-        <v>4.09578141494849E-53</v>
+        <v>1.4310580399203301E-177</v>
       </c>
       <c r="R30" s="1">
-        <v>9.6443238502839799E-244</v>
+        <v>0</v>
       </c>
       <c r="S30" s="1" t="b">
         <v>0</v>
@@ -3174,15 +3070,21 @@
       </c>
       <c r="V30" s="1">
         <f t="shared" si="2"/>
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>20000</v>
+      </c>
+      <c r="X30" s="15"/>
+      <c r="Y30" s="15"/>
+      <c r="Z30" s="15"/>
+      <c r="AA30" s="15"/>
+      <c r="AB30" s="15"/>
+      <c r="AC30" s="15"/>
+    </row>
+    <row r="31" spans="1:29" ht="30.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="B31" s="1">
-        <v>31335</v>
+        <v>0</v>
       </c>
       <c r="C31" s="1">
         <v>0</v>
@@ -3194,40 +3096,40 @@
         <v>0</v>
       </c>
       <c r="F31" s="1">
-        <v>6992</v>
+        <v>7237</v>
       </c>
       <c r="G31" s="1">
-        <v>11345</v>
+        <v>13116</v>
       </c>
       <c r="H31" s="1">
-        <v>9212</v>
+        <v>12763</v>
       </c>
       <c r="I31" s="1">
-        <v>1116</v>
+        <v>6884</v>
       </c>
       <c r="J31" s="1">
-        <v>31335</v>
+        <v>0</v>
       </c>
       <c r="K31" s="1">
-        <v>8648</v>
+        <v>2869</v>
       </c>
       <c r="L31" s="1">
-        <v>10328</v>
+        <v>19647</v>
       </c>
       <c r="M31" s="1">
-        <v>8108</v>
+        <v>14121</v>
       </c>
       <c r="N31" s="6">
-        <v>0.36030001744287399</v>
+        <v>0.49117499999999997</v>
       </c>
       <c r="O31" s="6">
-        <v>0.28285365428222498</v>
+        <v>0.35302499999999998</v>
       </c>
       <c r="P31" s="1">
         <v>0</v>
       </c>
       <c r="Q31" s="1">
-        <v>0</v>
+        <v>4.1555966696124288E-4</v>
       </c>
       <c r="R31" s="1">
         <v>0</v>
@@ -3239,547 +3141,495 @@
         <v>0</v>
       </c>
       <c r="V31" s="1">
-        <f>SUM(B31:H31)</f>
-        <v>58884</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>40000</v>
+      </c>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="15"/>
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="15"/>
+      <c r="AB31" s="15"/>
+      <c r="AC31" s="15"/>
     </row>
     <row r="32" spans="1:29" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32">
-        <v>336</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>27</v>
-      </c>
-      <c r="E32">
-        <v>26</v>
-      </c>
-      <c r="F32">
-        <v>42332</v>
-      </c>
-      <c r="G32">
-        <v>57360</v>
-      </c>
-      <c r="H32">
-        <v>57472</v>
-      </c>
-      <c r="I32">
-        <v>42446</v>
-      </c>
-      <c r="J32">
-        <v>337</v>
-      </c>
-      <c r="K32">
-        <v>30524</v>
-      </c>
-      <c r="L32">
-        <v>99918</v>
-      </c>
-      <c r="M32">
-        <v>84778</v>
+      <c r="A32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="1">
+        <v>305</v>
+      </c>
+      <c r="C32" s="1">
+        <v>3</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>13817</v>
+      </c>
+      <c r="G32" s="1">
+        <v>17903</v>
+      </c>
+      <c r="H32" s="1">
+        <v>16016</v>
+      </c>
+      <c r="I32" s="1">
+        <v>11956</v>
+      </c>
+      <c r="J32" s="1">
+        <v>308</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>27972</v>
+      </c>
+      <c r="M32" s="1">
+        <v>25773</v>
       </c>
       <c r="N32" s="6">
-        <v>0.50056610390261014</v>
+        <v>0.46860550827581499</v>
       </c>
       <c r="O32" s="6">
-        <v>0.42471820049095738</v>
-      </c>
-      <c r="P32">
-        <v>2.6499999999999999E-4</v>
-      </c>
-      <c r="Q32">
-        <v>0.61296560411687151</v>
-      </c>
-      <c r="R32" s="12">
-        <v>0</v>
-      </c>
-      <c r="S32" t="b">
-        <v>1</v>
-      </c>
-      <c r="T32" t="b">
+        <v>0.43176640085773599</v>
+      </c>
+      <c r="P32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>4.09578141494849E-53</v>
+      </c>
+      <c r="R32" s="1">
+        <v>9.6443238502839799E-244</v>
+      </c>
+      <c r="S32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T32" s="1" t="b">
         <v>0</v>
       </c>
       <c r="V32" s="1">
         <f t="shared" si="2"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="1">
+        <v>31335</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>6992</v>
+      </c>
+      <c r="G33" s="1">
+        <v>11345</v>
+      </c>
+      <c r="H33" s="1">
+        <v>9212</v>
+      </c>
+      <c r="I33" s="1">
+        <v>1116</v>
+      </c>
+      <c r="J33" s="1">
+        <v>31335</v>
+      </c>
+      <c r="K33" s="1">
+        <v>8648</v>
+      </c>
+      <c r="L33" s="1">
+        <v>10328</v>
+      </c>
+      <c r="M33" s="1">
+        <v>8108</v>
+      </c>
+      <c r="N33" s="6">
+        <v>0.36030001744287399</v>
+      </c>
+      <c r="O33" s="6">
+        <v>0.28285365428222498</v>
+      </c>
+      <c r="P33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>0</v>
+      </c>
+      <c r="R33" s="1">
+        <v>0</v>
+      </c>
+      <c r="S33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V33" s="1">
+        <f>SUM(B33:H33)</f>
+        <v>58884</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34">
+        <v>336</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>27</v>
+      </c>
+      <c r="E34">
+        <v>26</v>
+      </c>
+      <c r="F34">
+        <v>42332</v>
+      </c>
+      <c r="G34">
+        <v>57360</v>
+      </c>
+      <c r="H34">
+        <v>57472</v>
+      </c>
+      <c r="I34">
+        <v>42446</v>
+      </c>
+      <c r="J34">
+        <v>337</v>
+      </c>
+      <c r="K34">
+        <v>30524</v>
+      </c>
+      <c r="L34">
+        <v>99918</v>
+      </c>
+      <c r="M34">
+        <v>84778</v>
+      </c>
+      <c r="N34" s="6">
+        <v>0.50056610390261014</v>
+      </c>
+      <c r="O34" s="6">
+        <v>0.42471820049095738</v>
+      </c>
+      <c r="P34">
+        <v>2.6499999999999999E-4</v>
+      </c>
+      <c r="Q34">
+        <v>0.61296560411687151</v>
+      </c>
+      <c r="R34" s="12">
+        <v>0</v>
+      </c>
+      <c r="S34" t="b">
+        <v>1</v>
+      </c>
+      <c r="T34" t="b">
+        <v>0</v>
+      </c>
+      <c r="V34" s="1">
+        <f t="shared" si="2"/>
         <v>200000</v>
       </c>
-      <c r="X32" s="14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V33" s="1">
+      <c r="X34" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" ht="90" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" s="1">
+        <v>91</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1">
+        <v>5</v>
+      </c>
+      <c r="E35" s="1">
+        <v>4</v>
+      </c>
+      <c r="F35" s="1">
+        <v>12209</v>
+      </c>
+      <c r="G35" s="1">
+        <v>16491</v>
+      </c>
+      <c r="H35" s="1">
+        <v>17749</v>
+      </c>
+      <c r="I35" s="1">
+        <v>13450</v>
+      </c>
+      <c r="J35" s="1">
+        <v>92</v>
+      </c>
+      <c r="K35" s="1">
+        <v>11422</v>
+      </c>
+      <c r="L35" s="1">
+        <v>31199</v>
+      </c>
+      <c r="M35" s="1">
+        <v>25659</v>
+      </c>
+      <c r="N35" s="6">
+        <v>0.52086011452611902</v>
+      </c>
+      <c r="O35" s="6">
+        <v>0.42837109133708401</v>
+      </c>
+      <c r="P35" s="1">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>1.7753801652398302E-24</v>
+      </c>
+      <c r="R35" s="9">
+        <v>2.6222255631585199E-269</v>
+      </c>
+      <c r="S35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V35" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" s="4" customFormat="1" ht="15.75" collapsed="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="4">
-        <v>0</v>
-      </c>
-      <c r="C34" s="4">
+        <v>60000</v>
+      </c>
+      <c r="X35" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="18"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="R36" s="9"/>
+      <c r="V36" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X36" s="18"/>
+    </row>
+    <row r="37" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V37" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" s="4" customFormat="1" ht="15.75" collapsed="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="4">
+        <v>0</v>
+      </c>
+      <c r="C38" s="4">
         <v>11089</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D38" s="4">
         <v>170</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E38" s="4">
         <v>189</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F38" s="4">
         <v>3410</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G38" s="4">
         <v>895</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H38" s="4">
         <v>857</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I38" s="4">
         <v>3390</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J38" s="4">
         <v>11089</v>
       </c>
-      <c r="L34" s="4">
+      <c r="L38" s="4">
         <v>4247</v>
       </c>
-      <c r="M34" s="4">
+      <c r="M38" s="4">
         <v>6800</v>
       </c>
-      <c r="N34" s="5">
+      <c r="N38" s="5">
         <v>0.49660898035547202</v>
       </c>
-      <c r="O34" s="5">
+      <c r="O38" s="5">
         <v>0.79513564078578103</v>
       </c>
-      <c r="P34" s="5">
+      <c r="P38" s="5">
         <v>1.7950000000000001E-2</v>
       </c>
-      <c r="Q34" s="4">
+      <c r="Q38" s="4">
         <v>0.53053940909766895</v>
       </c>
-      <c r="R34" s="4">
-        <v>0</v>
-      </c>
-      <c r="S34" s="4" t="b">
+      <c r="R38" s="4">
+        <v>0</v>
+      </c>
+      <c r="S38" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="T34" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="V34" s="4">
+      <c r="T38" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="V38" s="4">
         <f t="shared" si="2"/>
         <v>20000</v>
       </c>
-      <c r="X34" s="4" t="s">
+      <c r="X38" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-    </row>
-    <row r="36" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="39" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+    </row>
+    <row r="40" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B40" s="1">
         <v>202</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C40" s="1">
         <v>9943</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D40" s="1">
         <v>596</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E40" s="1">
         <v>845</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F40" s="1">
         <v>3384</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G40" s="1">
         <v>651</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H40" s="1">
         <v>630</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I40" s="1">
         <v>3749</v>
       </c>
-      <c r="J36" s="1">
+      <c r="J40" s="1">
         <v>10145</v>
       </c>
-      <c r="K36" s="1">
-        <v>0</v>
-      </c>
-      <c r="L36" s="1">
+      <c r="K40" s="1">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1">
         <v>4379</v>
       </c>
-      <c r="M36" s="1">
+      <c r="M40" s="1">
         <v>7133</v>
       </c>
-      <c r="N36" s="8">
+      <c r="N40" s="8">
         <v>0.52044212027573</v>
       </c>
-      <c r="O36" s="8">
+      <c r="O40" s="8">
         <v>0.84775374376039903</v>
       </c>
-      <c r="P36" s="8">
+      <c r="P40" s="8">
         <v>7.2050000000000003E-2</v>
       </c>
-      <c r="Q36" s="1">
+      <c r="Q40" s="1">
         <v>1.76676796030785E-4</v>
       </c>
-      <c r="R36" s="1">
-        <v>0</v>
-      </c>
-      <c r="S36" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="T36" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="V36" s="1">
+      <c r="R40" s="1">
+        <v>0</v>
+      </c>
+      <c r="S40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V40" s="1">
         <f t="shared" si="2"/>
         <v>20000</v>
       </c>
-      <c r="X36" s="1" t="s">
+      <c r="X40" s="1" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B37" s="1">
-        <v>0</v>
-      </c>
-      <c r="C37" s="1">
-        <v>8716</v>
-      </c>
-      <c r="D37" s="1">
-        <v>3556</v>
-      </c>
-      <c r="E37" s="1">
-        <v>3598</v>
-      </c>
-      <c r="F37" s="1">
-        <v>8748</v>
-      </c>
-      <c r="G37" s="1">
-        <v>3349</v>
-      </c>
-      <c r="H37" s="1">
-        <v>3303</v>
-      </c>
-      <c r="I37" s="1">
-        <v>8730</v>
-      </c>
-      <c r="J37" s="1">
-        <v>8716</v>
-      </c>
-      <c r="K37" s="1">
-        <v>81</v>
-      </c>
-      <c r="L37" s="1">
-        <v>12033</v>
-      </c>
-      <c r="M37" s="1">
-        <v>17478</v>
-      </c>
-      <c r="N37" s="6">
-        <v>0.49867384997927799</v>
-      </c>
-      <c r="O37" s="6">
-        <v>0.72432656444260202</v>
-      </c>
-      <c r="P37" s="6">
-        <v>0.17885000000000001</v>
-      </c>
-      <c r="Q37" s="1">
-        <v>0.68033657443751105</v>
-      </c>
-      <c r="R37" s="1">
-        <v>0</v>
-      </c>
-      <c r="S37" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="T37" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="V37" s="1">
-        <f t="shared" si="2"/>
-        <v>40000</v>
-      </c>
-      <c r="X37" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="1">
-        <v>0</v>
-      </c>
-      <c r="C38" s="1">
-        <v>0</v>
-      </c>
-      <c r="D38" s="1">
-        <v>2925</v>
-      </c>
-      <c r="E38" s="1">
-        <v>2959</v>
-      </c>
-      <c r="F38" s="1">
-        <v>16404</v>
-      </c>
-      <c r="G38" s="1">
-        <v>662</v>
-      </c>
-      <c r="H38" s="1">
-        <v>671</v>
-      </c>
-      <c r="I38" s="1">
-        <v>16379</v>
-      </c>
-      <c r="J38" s="1">
-        <v>0</v>
-      </c>
-      <c r="K38" s="1">
-        <v>75</v>
-      </c>
-      <c r="L38" s="1">
-        <v>17050</v>
-      </c>
-      <c r="M38" s="1">
-        <v>32783</v>
-      </c>
-      <c r="N38" s="6">
-        <v>0.49976550592097502</v>
-      </c>
-      <c r="O38" s="6">
-        <v>0.96092742408254195</v>
-      </c>
-      <c r="P38" s="6">
-        <v>0.14710000000000001</v>
-      </c>
-      <c r="Q38" s="1">
-        <v>0.93096996096073903</v>
-      </c>
-      <c r="R38" s="1">
-        <v>0</v>
-      </c>
-      <c r="S38" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="T38" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="V38" s="1">
-        <f t="shared" si="2"/>
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B39" s="1">
-        <v>0</v>
-      </c>
-      <c r="C39" s="1">
-        <v>8794</v>
-      </c>
-      <c r="D39" s="1">
-        <v>211</v>
-      </c>
-      <c r="E39" s="1">
-        <v>188</v>
-      </c>
-      <c r="F39" s="1">
-        <v>10767</v>
-      </c>
-      <c r="G39" s="1">
-        <v>4572</v>
-      </c>
-      <c r="H39" s="1">
-        <v>4668</v>
-      </c>
-      <c r="I39" s="1">
-        <v>10800</v>
-      </c>
-      <c r="J39" s="1">
-        <v>8794</v>
-      </c>
-      <c r="K39" s="1">
-        <v>76</v>
-      </c>
-      <c r="L39" s="1">
-        <v>15468</v>
-      </c>
-      <c r="M39" s="1">
-        <v>21567</v>
-      </c>
-      <c r="N39" s="6">
-        <v>0.50209368000778998</v>
-      </c>
-      <c r="O39" s="6">
-        <v>0.70006816632583502</v>
-      </c>
-      <c r="P39" s="6">
-        <v>9.9749999999999995E-3</v>
-      </c>
-      <c r="Q39" s="1">
-        <v>0.46236251267769402</v>
-      </c>
-      <c r="R39" s="1">
-        <v>0</v>
-      </c>
-      <c r="S39" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="T39" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="V39" s="1">
-        <f t="shared" si="2"/>
-        <v>40000</v>
-      </c>
-      <c r="X39" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B40" s="1">
-        <v>0</v>
-      </c>
-      <c r="C40" s="1">
-        <v>0</v>
-      </c>
-      <c r="D40" s="1">
-        <v>1600</v>
-      </c>
-      <c r="E40" s="1">
-        <v>1502</v>
-      </c>
-      <c r="F40" s="1">
-        <v>12839</v>
-      </c>
-      <c r="G40" s="1">
-        <v>5444</v>
-      </c>
-      <c r="H40" s="1">
-        <v>5561</v>
-      </c>
-      <c r="I40" s="1">
-        <v>13054</v>
-      </c>
-      <c r="J40" s="1">
-        <v>0</v>
-      </c>
-      <c r="K40" s="1">
-        <v>78</v>
-      </c>
-      <c r="L40" s="1">
-        <v>18615</v>
-      </c>
-      <c r="M40" s="1">
-        <v>25893</v>
-      </c>
-      <c r="N40" s="6">
-        <v>0.50449888882866201</v>
-      </c>
-      <c r="O40" s="6">
-        <v>0.70174535205160105</v>
-      </c>
-      <c r="P40" s="6">
-        <v>7.7549999999999994E-2</v>
-      </c>
-      <c r="Q40" s="1">
-        <v>8.3921945417890706E-2</v>
-      </c>
-      <c r="R40" s="1">
-        <v>0</v>
-      </c>
-      <c r="S40" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="T40" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="V40" s="1">
-        <f t="shared" si="2"/>
-        <v>40000</v>
       </c>
     </row>
     <row r="41" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B41" s="1">
         <v>0</v>
       </c>
       <c r="C41" s="1">
-        <v>0</v>
+        <v>8716</v>
       </c>
       <c r="D41" s="1">
-        <v>1473</v>
+        <v>3556</v>
       </c>
       <c r="E41" s="1">
-        <v>1526</v>
+        <v>3598</v>
       </c>
       <c r="F41" s="1">
-        <v>12849</v>
+        <v>8748</v>
       </c>
       <c r="G41" s="1">
-        <v>5661</v>
+        <v>3349</v>
       </c>
       <c r="H41" s="1">
-        <v>5678</v>
+        <v>3303</v>
       </c>
       <c r="I41" s="1">
-        <v>12813</v>
+        <v>8730</v>
       </c>
       <c r="J41" s="1">
-        <v>0</v>
+        <v>8716</v>
       </c>
       <c r="K41" s="1">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="L41" s="1">
-        <v>18491</v>
+        <v>12033</v>
       </c>
       <c r="M41" s="1">
-        <v>25662</v>
+        <v>17478</v>
       </c>
       <c r="N41" s="6">
-        <v>0.49974325018242699</v>
+        <v>0.49867384997927799</v>
       </c>
       <c r="O41" s="6">
-        <v>0.69354882300478304</v>
+        <v>0.72432656444260202</v>
       </c>
       <c r="P41" s="6">
-        <v>7.4975E-2</v>
+        <v>0.17885000000000001</v>
       </c>
       <c r="Q41" s="1">
-        <v>0.92131694888854898</v>
+        <v>0.68033657443751105</v>
       </c>
       <c r="R41" s="1">
         <v>0</v>
@@ -3795,60 +3645,60 @@
         <v>40000</v>
       </c>
       <c r="X41" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B42" s="1">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="C42" s="1">
-        <v>18926</v>
+        <v>0</v>
       </c>
       <c r="D42" s="1">
-        <v>451</v>
+        <v>2925</v>
       </c>
       <c r="E42" s="1">
-        <v>469</v>
+        <v>2959</v>
       </c>
       <c r="F42" s="1">
-        <v>7808</v>
+        <v>16404</v>
       </c>
       <c r="G42" s="1">
-        <v>2202</v>
+        <v>662</v>
       </c>
       <c r="H42" s="1">
-        <v>2221</v>
+        <v>671</v>
       </c>
       <c r="I42" s="1">
-        <v>7836</v>
+        <v>16379</v>
       </c>
       <c r="J42" s="1">
-        <v>19013</v>
+        <v>0</v>
       </c>
       <c r="K42" s="1">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="L42" s="1">
-        <v>10057</v>
+        <v>17050</v>
       </c>
       <c r="M42" s="1">
-        <v>15644</v>
+        <v>32783</v>
       </c>
       <c r="N42" s="6">
-        <v>0.50117107689241003</v>
+        <v>0.49976550592097502</v>
       </c>
       <c r="O42" s="6">
-        <v>0.77958837893058197</v>
+        <v>0.96092742408254195</v>
       </c>
       <c r="P42" s="6">
-        <v>2.3E-2</v>
+        <v>0.14710000000000001</v>
       </c>
       <c r="Q42" s="1">
-        <v>0.74005167797177096</v>
+        <v>0.93096996096073903</v>
       </c>
       <c r="R42" s="1">
         <v>0</v>
@@ -3864,1698 +3714,1390 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
+    <row r="43" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1">
+        <v>8794</v>
+      </c>
+      <c r="D43" s="1">
+        <v>211</v>
+      </c>
+      <c r="E43" s="1">
+        <v>188</v>
+      </c>
+      <c r="F43" s="1">
+        <v>10767</v>
+      </c>
+      <c r="G43" s="1">
+        <v>4572</v>
+      </c>
+      <c r="H43" s="1">
+        <v>4668</v>
+      </c>
+      <c r="I43" s="1">
+        <v>10800</v>
+      </c>
+      <c r="J43" s="1">
+        <v>8794</v>
+      </c>
+      <c r="K43" s="1">
+        <v>76</v>
+      </c>
+      <c r="L43" s="1">
+        <v>15468</v>
+      </c>
+      <c r="M43" s="1">
+        <v>21567</v>
+      </c>
+      <c r="N43" s="6">
+        <v>0.50209368000778998</v>
+      </c>
+      <c r="O43" s="6">
+        <v>0.70006816632583502</v>
+      </c>
+      <c r="P43" s="6">
+        <v>9.9749999999999995E-3</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>0.46236251267769402</v>
+      </c>
+      <c r="R43" s="1">
+        <v>0</v>
+      </c>
+      <c r="S43" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="T43" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="V43" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" s="4" customFormat="1" ht="15.75" collapsed="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" s="4">
-        <v>0</v>
-      </c>
-      <c r="C44" s="4">
-        <v>0</v>
-      </c>
-      <c r="D44" s="4">
+        <v>40000</v>
+      </c>
+      <c r="X43" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1600</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1502</v>
+      </c>
+      <c r="F44" s="1">
+        <v>12839</v>
+      </c>
+      <c r="G44" s="1">
+        <v>5444</v>
+      </c>
+      <c r="H44" s="1">
+        <v>5561</v>
+      </c>
+      <c r="I44" s="1">
+        <v>13054</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1">
+        <v>78</v>
+      </c>
+      <c r="L44" s="1">
+        <v>18615</v>
+      </c>
+      <c r="M44" s="1">
+        <v>25893</v>
+      </c>
+      <c r="N44" s="6">
+        <v>0.50449888882866201</v>
+      </c>
+      <c r="O44" s="6">
+        <v>0.70174535205160105</v>
+      </c>
+      <c r="P44" s="6">
+        <v>7.7549999999999994E-2</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>8.3921945417890706E-2</v>
+      </c>
+      <c r="R44" s="1">
+        <v>0</v>
+      </c>
+      <c r="S44" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="T44" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V44" s="1">
+        <f t="shared" si="2"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1473</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1526</v>
+      </c>
+      <c r="F45" s="1">
+        <v>12849</v>
+      </c>
+      <c r="G45" s="1">
+        <v>5661</v>
+      </c>
+      <c r="H45" s="1">
+        <v>5678</v>
+      </c>
+      <c r="I45" s="1">
+        <v>12813</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0</v>
+      </c>
+      <c r="K45" s="1">
+        <v>87</v>
+      </c>
+      <c r="L45" s="1">
+        <v>18491</v>
+      </c>
+      <c r="M45" s="1">
+        <v>25662</v>
+      </c>
+      <c r="N45" s="6">
+        <v>0.49974325018242699</v>
+      </c>
+      <c r="O45" s="6">
+        <v>0.69354882300478304</v>
+      </c>
+      <c r="P45" s="6">
+        <v>7.4975E-2</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>0.92131694888854898</v>
+      </c>
+      <c r="R45" s="1">
+        <v>0</v>
+      </c>
+      <c r="S45" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="T45" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V45" s="1">
+        <f t="shared" si="2"/>
+        <v>40000</v>
+      </c>
+      <c r="X45" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" s="1">
+        <v>87</v>
+      </c>
+      <c r="C46" s="1">
+        <v>18926</v>
+      </c>
+      <c r="D46" s="1">
+        <v>451</v>
+      </c>
+      <c r="E46" s="1">
+        <v>469</v>
+      </c>
+      <c r="F46" s="1">
+        <v>7808</v>
+      </c>
+      <c r="G46" s="1">
+        <v>2202</v>
+      </c>
+      <c r="H46" s="1">
+        <v>2221</v>
+      </c>
+      <c r="I46" s="1">
+        <v>7836</v>
+      </c>
+      <c r="J46" s="1">
+        <v>19013</v>
+      </c>
+      <c r="K46" s="1">
+        <v>62</v>
+      </c>
+      <c r="L46" s="1">
+        <v>10057</v>
+      </c>
+      <c r="M46" s="1">
+        <v>15644</v>
+      </c>
+      <c r="N46" s="6">
+        <v>0.50117107689241003</v>
+      </c>
+      <c r="O46" s="6">
+        <v>0.77958837893058197</v>
+      </c>
+      <c r="P46" s="6">
+        <v>2.3E-2</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>0.74005167797177096</v>
+      </c>
+      <c r="R46" s="1">
+        <v>0</v>
+      </c>
+      <c r="S46" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="T46" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V46" s="1">
+        <f t="shared" si="2"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="V47" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" s="4" customFormat="1" ht="15.75" collapsed="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="4">
+        <v>0</v>
+      </c>
+      <c r="C48" s="4">
+        <v>0</v>
+      </c>
+      <c r="D48" s="4">
         <v>1367</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E48" s="4">
         <v>1360</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F48" s="4">
         <v>13765</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G48" s="4">
         <v>14474</v>
       </c>
-      <c r="H44" s="4">
+      <c r="H48" s="4">
         <v>14868</v>
       </c>
-      <c r="I44" s="4">
+      <c r="I48" s="4">
         <v>14166</v>
       </c>
-      <c r="J44" s="4">
-        <v>0</v>
-      </c>
-      <c r="L44" s="4">
+      <c r="J48" s="4">
+        <v>0</v>
+      </c>
+      <c r="L48" s="4">
         <v>29034</v>
       </c>
-      <c r="M44" s="4">
+      <c r="M48" s="4">
         <v>27931</v>
       </c>
-      <c r="N44" s="5">
+      <c r="N48" s="5">
         <v>0.50694044314074693</v>
       </c>
-      <c r="O44" s="5">
+      <c r="O48" s="5">
         <v>0.48768180468981892</v>
       </c>
-      <c r="P44" s="5">
+      <c r="P48" s="5">
         <v>4.5449999999999997E-2</v>
       </c>
-      <c r="Q44" s="4">
+      <c r="Q48" s="4">
         <v>8.939298713981675E-4</v>
       </c>
-      <c r="R44" s="4">
+      <c r="R48" s="4">
         <v>3.7258521194222113E-9</v>
       </c>
-      <c r="S44" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="T44" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="V44" s="4">
+      <c r="S48" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T48" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="V48" s="4">
         <f t="shared" si="2"/>
         <v>60000</v>
       </c>
-    </row>
-    <row r="45" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
-      <c r="P45" s="6"/>
-      <c r="V45" s="1">
+      <c r="X48" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="V49" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+    <row r="50" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B46" s="1">
-        <v>0</v>
-      </c>
-      <c r="C46" s="1">
-        <v>0</v>
-      </c>
-      <c r="D46" s="1">
+      <c r="B50" s="1">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1">
         <v>447</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E50" s="1">
         <v>354</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F50" s="1">
         <v>4439</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G50" s="1">
         <v>6890</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H50" s="1">
         <v>5114</v>
       </c>
-      <c r="I46" s="1">
+      <c r="I50" s="1">
         <v>2756</v>
       </c>
-      <c r="J46" s="1">
-        <v>0</v>
-      </c>
-      <c r="K46" s="1">
-        <v>0</v>
-      </c>
-      <c r="L46" s="1">
+      <c r="J50" s="1">
+        <v>0</v>
+      </c>
+      <c r="K50" s="1">
+        <v>0</v>
+      </c>
+      <c r="L50" s="1">
         <v>7870</v>
       </c>
-      <c r="M46" s="1">
+      <c r="M50" s="1">
         <v>7195</v>
       </c>
-      <c r="N46" s="6">
+      <c r="N50" s="6">
         <v>0.40991718318662401</v>
       </c>
-      <c r="O46" s="6">
+      <c r="O50" s="6">
         <v>0.37475910203656398</v>
       </c>
-      <c r="P46" s="6">
+      <c r="P50" s="6">
         <v>4.0050000000000002E-2</v>
       </c>
-      <c r="Q46" s="1">
+      <c r="Q50" s="1">
         <v>1.5111586962349399E-137</v>
       </c>
-      <c r="R46" s="1">
+      <c r="R50" s="1">
         <v>6.2054549079995103E-264</v>
       </c>
-      <c r="S46" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="T46" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="V46" s="1">
-        <f>SUM(B46:I46)</f>
+      <c r="S50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V50" s="1">
+        <f>SUM(B50:I50)</f>
         <v>20000</v>
       </c>
     </row>
-    <row r="47" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14" t="s">
+    <row r="51" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="1">
-        <v>0</v>
-      </c>
-      <c r="C47" s="1">
-        <v>0</v>
-      </c>
-      <c r="D47" s="1">
+      <c r="B51" s="1">
+        <v>0</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1">
         <v>968</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E51" s="1">
         <v>972</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F51" s="1">
         <v>9280</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G51" s="1">
         <v>9673</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H51" s="1">
         <v>9752</v>
       </c>
-      <c r="I47" s="1">
+      <c r="I51" s="1">
         <v>9355</v>
       </c>
-      <c r="J47" s="1">
-        <v>0</v>
-      </c>
-      <c r="K47" s="1">
+      <c r="J51" s="1">
+        <v>0</v>
+      </c>
+      <c r="K51" s="1">
         <v>152</v>
       </c>
-      <c r="L47" s="1">
+      <c r="L51" s="1">
         <v>19107</v>
       </c>
-      <c r="M47" s="1">
+      <c r="M51" s="1">
         <v>18635</v>
       </c>
-      <c r="N47" s="6">
+      <c r="N51" s="6">
         <v>0.502023121387283</v>
       </c>
-      <c r="O47" s="6">
+      <c r="O51" s="6">
         <v>0.489621650026274</v>
       </c>
-      <c r="P47" s="6">
+      <c r="P51" s="6">
         <v>4.8500000000000001E-2</v>
       </c>
-      <c r="Q47" s="1">
+      <c r="Q51" s="1">
         <v>0.42988971855481001</v>
       </c>
-      <c r="R47" s="1">
+      <c r="R51" s="1">
         <v>5.1344979674451102E-5</v>
       </c>
-      <c r="S47" s="1" t="b">
+      <c r="S51" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="T47" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="V47" s="1">
-        <f>SUM(B47:I47)</f>
+      <c r="T51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V51" s="1">
+        <f>SUM(B51:I51)</f>
         <v>40000</v>
       </c>
-      <c r="X47" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="X51" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B48" s="1">
-        <v>0</v>
-      </c>
-      <c r="C48" s="1">
-        <v>0</v>
-      </c>
-      <c r="D48" s="1">
+      <c r="B52" s="1">
+        <v>0</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1">
         <v>1070</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E52" s="1">
         <v>1114</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F52" s="1">
         <v>9334</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G52" s="1">
         <v>9994</v>
       </c>
-      <c r="H48" s="1">
+      <c r="H52" s="1">
         <v>9596</v>
       </c>
-      <c r="I48" s="1">
+      <c r="I52" s="1">
         <v>8892</v>
       </c>
-      <c r="J48" s="1">
-        <v>0</v>
-      </c>
-      <c r="K48" s="1">
+      <c r="J52" s="1">
+        <v>0</v>
+      </c>
+      <c r="K52" s="1">
         <v>486</v>
       </c>
-      <c r="L48" s="1">
+      <c r="L52" s="1">
         <v>18488</v>
       </c>
-      <c r="M48" s="1">
+      <c r="M52" s="1">
         <v>18226</v>
       </c>
-      <c r="N48" s="6">
+      <c r="N52" s="6">
         <v>0.48889359001480798</v>
       </c>
-      <c r="O48" s="6">
+      <c r="O52" s="6">
         <v>0.481965305690712</v>
       </c>
-      <c r="P48" s="6">
+      <c r="P52" s="6">
         <v>5.4600000000000003E-2</v>
       </c>
-      <c r="Q48" s="1">
+      <c r="Q52" s="1">
         <v>1.5632664546767599E-5</v>
       </c>
-      <c r="R48" s="1">
+      <c r="R52" s="1">
         <v>2.31310304059544E-12</v>
       </c>
-      <c r="S48" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="T48" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="V48" s="1">
+      <c r="S52" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T52" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V52" s="1">
         <f t="shared" si="2"/>
         <v>40000</v>
       </c>
     </row>
-    <row r="49" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+    <row r="53" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B49" s="1">
-        <v>0</v>
-      </c>
-      <c r="C49" s="1">
-        <v>0</v>
-      </c>
-      <c r="D49" s="1">
+      <c r="B53" s="1">
+        <v>0</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1">
         <v>753</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E53" s="1">
         <v>753</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F53" s="1">
         <v>10817</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G53" s="1">
         <v>8410</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H53" s="1">
         <v>8430</v>
       </c>
-      <c r="I49" s="1">
+      <c r="I53" s="1">
         <v>10837</v>
       </c>
-      <c r="J49" s="1">
-        <v>0</v>
-      </c>
-      <c r="K49" s="1">
+      <c r="J53" s="1">
+        <v>0</v>
+      </c>
+      <c r="K53" s="1">
         <v>150</v>
       </c>
-      <c r="L49" s="1">
+      <c r="L53" s="1">
         <v>19267</v>
       </c>
-      <c r="M49" s="1">
+      <c r="M53" s="1">
         <v>21654</v>
       </c>
-      <c r="N49" s="6">
+      <c r="N53" s="6">
         <v>0.50051956149010202</v>
       </c>
-      <c r="O49" s="6">
+      <c r="O53" s="6">
         <v>0.56252922533381799</v>
       </c>
-      <c r="P49" s="6">
+      <c r="P53" s="6">
         <v>3.7650000000000003E-2</v>
       </c>
-      <c r="Q49" s="1">
+      <c r="Q53" s="1">
         <v>0.838451366658021</v>
       </c>
-      <c r="R49" s="1">
+      <c r="R53" s="1">
         <v>6.0528320564918597E-133</v>
       </c>
-      <c r="S49" s="1" t="b">
+      <c r="S53" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="T49" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="V49" s="1">
+      <c r="T53" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V53" s="1">
         <f t="shared" si="2"/>
         <v>40000</v>
       </c>
     </row>
-    <row r="50" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="1">
-        <v>0</v>
-      </c>
-      <c r="C50" s="1">
-        <v>0</v>
-      </c>
-      <c r="D50" s="1">
+    <row r="54" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="1">
+        <v>0</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1">
         <v>1177</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E54" s="1">
         <v>1129</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F54" s="1">
         <v>16106</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G54" s="1">
         <v>12583</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H54" s="1">
         <v>12717</v>
       </c>
-      <c r="I50" s="1">
+      <c r="I54" s="1">
         <v>16288</v>
       </c>
-      <c r="J50" s="1">
-        <v>0</v>
-      </c>
-      <c r="K50" s="1">
+      <c r="J54" s="1">
+        <v>0</v>
+      </c>
+      <c r="K54" s="1">
         <v>216</v>
       </c>
-      <c r="L50" s="1">
+      <c r="L54" s="1">
         <v>29005</v>
       </c>
-      <c r="M50" s="1">
+      <c r="M54" s="1">
         <v>32394</v>
       </c>
-      <c r="N50" s="6">
+      <c r="N54" s="6">
         <v>0.50273858633479995</v>
       </c>
-      <c r="O50" s="6">
+      <c r="O54" s="6">
         <v>0.56147952993378802</v>
       </c>
-      <c r="P50" s="6">
+      <c r="P54" s="6">
         <v>3.8433333333333299E-2</v>
       </c>
-      <c r="Q50" s="1">
+      <c r="Q54" s="1">
         <v>0.18831047728528399</v>
       </c>
-      <c r="R50" s="1">
+      <c r="R54" s="1">
         <v>1.04653267908594E-191</v>
       </c>
-      <c r="S50" s="1" t="b">
+      <c r="S54" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="T50" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="V50" s="1">
+      <c r="T54" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V54" s="1">
         <f t="shared" si="2"/>
         <v>60000</v>
       </c>
     </row>
-    <row r="51" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="14" t="s">
+    <row r="55" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B51" s="1">
-        <v>0</v>
-      </c>
-      <c r="C51" s="1">
-        <v>0</v>
-      </c>
-      <c r="D51" s="1">
+      <c r="B55" s="1">
+        <v>0</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1">
         <v>1930</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E55" s="1">
         <v>1882</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F55" s="1">
         <v>26923</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G55" s="1">
         <v>20993</v>
       </c>
-      <c r="H51" s="1">
+      <c r="H55" s="1">
         <v>21147</v>
       </c>
-      <c r="I51" s="1">
+      <c r="I55" s="1">
         <v>27125</v>
       </c>
-      <c r="K51" s="1">
-        <v>0</v>
-      </c>
-      <c r="L51" s="1">
+      <c r="K55" s="1">
+        <v>0</v>
+      </c>
+      <c r="L55" s="1">
         <v>48272</v>
       </c>
-      <c r="M51" s="1">
+      <c r="M55" s="1">
         <v>54048</v>
       </c>
-      <c r="N51" s="6">
+      <c r="N55" s="6">
         <v>0.5018505426872375</v>
       </c>
-      <c r="O51" s="6">
+      <c r="O55" s="6">
         <v>0.56189961325737103</v>
       </c>
-      <c r="P51" s="6">
+      <c r="P55" s="6">
         <v>3.8120000000000001E-2</v>
       </c>
-      <c r="Q51" s="1">
+      <c r="Q55" s="1">
         <v>0.25102567739511439</v>
       </c>
-      <c r="R51" s="1">
-        <v>0</v>
-      </c>
-      <c r="S51" s="1" t="b">
+      <c r="R55" s="1">
+        <v>0</v>
+      </c>
+      <c r="S55" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="T51" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="V51" s="1">
+      <c r="T55" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V55" s="1">
         <f t="shared" si="2"/>
         <v>100000</v>
       </c>
-      <c r="X51" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N52" s="6"/>
-      <c r="O52" s="6"/>
-      <c r="P52" s="6"/>
-      <c r="V52" s="1">
+      <c r="X55" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+      <c r="V56" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:24" s="4" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B53" s="4">
-        <v>0</v>
-      </c>
-      <c r="C53" s="4">
-        <v>0</v>
-      </c>
-      <c r="D53" s="4">
-        <v>0</v>
-      </c>
-      <c r="E53" s="4">
-        <v>0</v>
-      </c>
-      <c r="F53" s="4">
-        <v>29887</v>
-      </c>
-      <c r="G53" s="4">
-        <v>30609</v>
-      </c>
-      <c r="H53" s="4">
-        <v>30113</v>
-      </c>
-      <c r="I53" s="4">
-        <v>29391</v>
-      </c>
-      <c r="J53" s="4">
-        <v>0</v>
-      </c>
-      <c r="K53" s="4">
-        <v>0</v>
-      </c>
-      <c r="L53" s="4">
-        <v>59504</v>
-      </c>
-      <c r="M53" s="4">
-        <v>59278</v>
-      </c>
-      <c r="N53" s="5">
-        <v>0.49586666666666668</v>
-      </c>
-      <c r="O53" s="5">
-        <v>0.49398333333333333</v>
-      </c>
-      <c r="P53" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="4">
-        <v>4.1878077707538782E-3</v>
-      </c>
-      <c r="R53" s="4">
-        <v>3.0665253308703635E-5</v>
-      </c>
-      <c r="S53" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="T53" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="V53" s="4">
-        <f t="shared" ref="V53:V54" si="3">SUM(B53:I53)</f>
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="N54" s="6"/>
-      <c r="O54" s="6"/>
-      <c r="P54" s="6"/>
-      <c r="V54" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B55" s="1">
-        <v>0</v>
-      </c>
-      <c r="C55" s="1">
-        <v>0</v>
-      </c>
-      <c r="D55" s="1">
-        <v>0</v>
-      </c>
-      <c r="E55" s="1">
-        <v>0</v>
-      </c>
-      <c r="F55" s="1">
-        <v>1981</v>
-      </c>
-      <c r="G55" s="1">
-        <v>1565</v>
-      </c>
-      <c r="H55" s="1">
-        <v>10519</v>
-      </c>
-      <c r="I55" s="1">
-        <v>10935</v>
-      </c>
-      <c r="J55" s="1">
-        <v>0</v>
-      </c>
-      <c r="K55" s="1">
-        <v>0</v>
-      </c>
-      <c r="L55" s="1">
-        <v>21454</v>
-      </c>
-      <c r="M55" s="1">
-        <v>12916</v>
-      </c>
-      <c r="N55" s="6">
-        <v>0.85816000000000003</v>
-      </c>
-      <c r="O55" s="6">
-        <v>0.51663999999999999</v>
-      </c>
-      <c r="P55" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="1">
-        <v>0</v>
-      </c>
-      <c r="R55" s="1">
-        <v>1.4247349133344401E-7</v>
-      </c>
-      <c r="S55" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="T55" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="V55" s="1">
-        <f>SUM(B55:I55)</f>
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B56" s="1">
-        <v>122</v>
-      </c>
-      <c r="C56" s="1">
-        <v>0</v>
-      </c>
-      <c r="D56" s="1">
-        <v>0</v>
-      </c>
-      <c r="E56" s="1">
-        <v>0</v>
-      </c>
-      <c r="F56" s="1">
-        <v>35158</v>
-      </c>
-      <c r="G56" s="1">
-        <v>35536</v>
-      </c>
-      <c r="H56" s="1">
-        <v>34783</v>
-      </c>
-      <c r="I56" s="1">
-        <v>34401</v>
-      </c>
-      <c r="J56" s="1">
-        <v>122</v>
-      </c>
-      <c r="K56" s="1">
-        <v>0</v>
-      </c>
-      <c r="L56" s="1">
-        <v>69184</v>
-      </c>
-      <c r="M56" s="1">
-        <v>69559</v>
-      </c>
-      <c r="N56" s="1">
-        <v>0.49460243926850539</v>
-      </c>
-      <c r="O56" s="1">
-        <v>0.49728334691659876</v>
-      </c>
-      <c r="P56" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="1">
-        <v>5.4045882770361349E-5</v>
-      </c>
-      <c r="R56" s="1">
-        <v>4.2146465296798635E-2</v>
-      </c>
-      <c r="S56" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="T56" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="V56" s="1">
-        <f t="shared" ref="V56:V61" si="4">SUM(B56:I56)</f>
-        <v>140000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B57" s="1">
-        <v>80</v>
-      </c>
-      <c r="C57" s="1">
-        <v>0</v>
-      </c>
-      <c r="D57" s="1">
-        <v>0</v>
-      </c>
-      <c r="E57" s="1">
-        <v>0</v>
-      </c>
-      <c r="F57" s="1">
-        <v>35017</v>
-      </c>
-      <c r="G57" s="1">
-        <v>35896</v>
-      </c>
-      <c r="H57" s="1">
-        <v>34936</v>
-      </c>
-      <c r="I57" s="1">
-        <v>34071</v>
-      </c>
-      <c r="J57" s="1">
-        <v>80</v>
-      </c>
-      <c r="K57" s="1">
-        <v>0</v>
-      </c>
-      <c r="L57" s="1">
-        <v>69007</v>
-      </c>
-      <c r="M57" s="1">
-        <v>69088</v>
-      </c>
-      <c r="N57" s="1">
-        <v>0.49318896512292737</v>
-      </c>
-      <c r="O57" s="1">
-        <v>0.493767867352773</v>
-      </c>
-      <c r="P57" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="1">
-        <v>3.4790406267529697E-7</v>
-      </c>
-      <c r="R57" s="1">
-        <v>3.1259104356187849E-6</v>
-      </c>
-      <c r="S57" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="T57" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="V57" s="1">
-        <f t="shared" si="4"/>
-        <v>140000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B58" s="1">
-        <v>0</v>
-      </c>
-      <c r="C58" s="1">
-        <v>0</v>
-      </c>
-      <c r="D58" s="1">
-        <v>0</v>
-      </c>
-      <c r="E58" s="1">
-        <v>0</v>
-      </c>
-      <c r="F58" s="1">
-        <v>10112</v>
-      </c>
-      <c r="G58" s="1">
-        <v>10173</v>
-      </c>
-      <c r="H58" s="1">
-        <v>9888</v>
-      </c>
-      <c r="I58" s="1">
-        <v>9827</v>
-      </c>
-      <c r="J58" s="1">
-        <v>0</v>
-      </c>
-      <c r="K58" s="1">
-        <v>0</v>
-      </c>
-      <c r="L58" s="1">
-        <v>19715</v>
-      </c>
-      <c r="M58" s="1">
-        <v>19939</v>
-      </c>
-      <c r="N58" s="1">
-        <v>0.49287500000000001</v>
-      </c>
-      <c r="O58" s="1">
-        <v>0.498475</v>
-      </c>
-      <c r="P58" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="1">
-        <v>4.3719229098264801E-3</v>
-      </c>
-      <c r="R58" s="1">
-        <v>0.54186180756601099</v>
-      </c>
-      <c r="S58" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="T58" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="V58" s="1">
+    <row r="57" spans="1:24" s="4" customFormat="1" ht="15.75" collapsed="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B57" s="4">
+        <v>0</v>
+      </c>
+      <c r="C57" s="4">
+        <v>0</v>
+      </c>
+      <c r="D57" s="4">
+        <v>2769</v>
+      </c>
+      <c r="E57" s="4">
+        <v>4041</v>
+      </c>
+      <c r="F57" s="4">
+        <v>30797</v>
+      </c>
+      <c r="G57" s="4">
+        <v>19990</v>
+      </c>
+      <c r="H57" s="4">
+        <v>16434</v>
+      </c>
+      <c r="I57" s="4">
+        <v>25969</v>
+      </c>
+      <c r="J57" s="4">
+        <v>0</v>
+      </c>
+      <c r="K57" s="4">
+        <v>2711</v>
+      </c>
+      <c r="L57" s="4">
+        <v>42403</v>
+      </c>
+      <c r="M57" s="4">
+        <v>56766</v>
+      </c>
+      <c r="N57" s="5">
+        <v>0.45501663268591053</v>
+      </c>
+      <c r="O57" s="5">
+        <v>0.60914261186822616</v>
+      </c>
+      <c r="P57" s="5">
+        <v>6.8099999999999994E-2</v>
+      </c>
+      <c r="Q57" s="4">
+        <v>4.7047778954509411E-166</v>
+      </c>
+      <c r="R57" s="4">
+        <v>0</v>
+      </c>
+      <c r="S57" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T57" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="V57" s="4">
+        <f t="shared" ref="V57" si="3">SUM(B57:I57)</f>
+        <v>100000</v>
+      </c>
+      <c r="X57" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+    </row>
+    <row r="59" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B59" s="1">
+        <v>2</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1574</v>
+      </c>
+      <c r="E59" s="1">
+        <v>1617</v>
+      </c>
+      <c r="F59" s="1">
+        <v>11407</v>
+      </c>
+      <c r="G59" s="1">
+        <v>9020</v>
+      </c>
+      <c r="H59" s="1">
+        <v>7017</v>
+      </c>
+      <c r="I59" s="1">
+        <v>9363</v>
+      </c>
+      <c r="J59" s="1">
+        <v>2</v>
+      </c>
+      <c r="K59" s="1">
+        <v>1920</v>
+      </c>
+      <c r="L59" s="1">
+        <v>16380</v>
+      </c>
+      <c r="M59" s="1">
+        <v>20770</v>
+      </c>
+      <c r="N59" s="6">
+        <v>0.44502404433939102</v>
+      </c>
+      <c r="O59" s="6">
+        <v>0.56429483522156099</v>
+      </c>
+      <c r="P59" s="6">
+        <v>7.9774999999999999E-2</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>8.9459058894409597E-99</v>
+      </c>
+      <c r="R59" s="1">
+        <v>2.23877033334065E-134</v>
+      </c>
+      <c r="S59" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T59" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V59" s="1">
+        <f t="shared" ref="V59:V65" si="4">SUM(B59:I59)</f>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1">
+        <v>1665</v>
+      </c>
+      <c r="E60" s="1">
+        <v>1687</v>
+      </c>
+      <c r="F60" s="1">
+        <v>11231</v>
+      </c>
+      <c r="G60" s="1">
+        <v>8900</v>
+      </c>
+      <c r="H60" s="1">
+        <v>7104</v>
+      </c>
+      <c r="I60" s="1">
+        <v>9413</v>
+      </c>
+      <c r="J60" s="1">
+        <v>0</v>
+      </c>
+      <c r="K60" s="1">
+        <v>2296</v>
+      </c>
+      <c r="L60" s="1">
+        <v>16517</v>
+      </c>
+      <c r="M60" s="1">
+        <v>20644</v>
+      </c>
+      <c r="N60" s="6">
+        <v>0.45069308000000002</v>
+      </c>
+      <c r="O60" s="6">
+        <v>0.563304955</v>
+      </c>
+      <c r="P60" s="6">
+        <v>8.3799999999999999E-2</v>
+      </c>
+      <c r="Q60" s="1">
+        <v>1.72E-79</v>
+      </c>
+      <c r="R60" s="1">
+        <v>8.8999999999999997E-130</v>
+      </c>
+      <c r="S60" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T60" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V60" s="1">
         <f t="shared" si="4"/>
         <v>40000</v>
       </c>
     </row>
-    <row r="59" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B59" s="1">
-        <v>0</v>
-      </c>
-      <c r="C59" s="1">
-        <v>0</v>
-      </c>
-      <c r="D59" s="1">
-        <v>0</v>
-      </c>
-      <c r="E59" s="1">
-        <v>0</v>
-      </c>
-      <c r="F59" s="1">
-        <v>10053</v>
-      </c>
-      <c r="G59" s="1">
-        <v>10140</v>
-      </c>
-      <c r="H59" s="1">
-        <v>9947</v>
-      </c>
-      <c r="I59" s="1">
-        <v>9860</v>
-      </c>
-      <c r="J59" s="1">
-        <v>0</v>
-      </c>
-      <c r="K59" s="1">
-        <v>0</v>
-      </c>
-      <c r="L59" s="1">
-        <v>19807</v>
-      </c>
-      <c r="M59" s="1">
-        <v>19913</v>
-      </c>
-      <c r="N59" s="1">
-        <v>0.49517499999999998</v>
-      </c>
-      <c r="O59" s="1">
-        <v>0.49782500000000002</v>
-      </c>
-      <c r="P59" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="1">
-        <v>5.3606837754109897E-2</v>
-      </c>
-      <c r="R59" s="1">
-        <v>0.38430040420739198</v>
-      </c>
-      <c r="S59" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="T59" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="V59" s="1">
-        <f t="shared" si="4"/>
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B60" s="1">
-        <v>169</v>
-      </c>
-      <c r="C60" s="1">
-        <v>0</v>
-      </c>
-      <c r="D60" s="1">
-        <v>0</v>
-      </c>
-      <c r="E60" s="1">
-        <v>0</v>
-      </c>
-      <c r="F60" s="1">
-        <v>49808</v>
-      </c>
-      <c r="G60" s="1">
-        <v>51143</v>
-      </c>
-      <c r="H60" s="1">
-        <v>50100</v>
-      </c>
-      <c r="I60" s="1">
-        <v>48780</v>
-      </c>
-      <c r="J60" s="1">
-        <v>169</v>
-      </c>
-      <c r="K60" s="1">
-        <v>0</v>
-      </c>
-      <c r="L60" s="1">
-        <v>98880</v>
-      </c>
-      <c r="M60" s="1">
-        <v>98588</v>
-      </c>
-      <c r="N60" s="1">
-        <v>0.49481812131250907</v>
-      </c>
-      <c r="O60" s="1">
-        <v>0.49335688656915094</v>
-      </c>
-      <c r="P60" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="1">
-        <v>3.6065789082257458E-6</v>
-      </c>
-      <c r="R60" s="1">
-        <v>2.8629340680418355E-9</v>
-      </c>
-      <c r="S60" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="T60" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="V60" s="1">
-        <f t="shared" si="4"/>
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B61" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C61" s="1">
         <v>0</v>
       </c>
       <c r="D61" s="1">
-        <v>0</v>
+        <v>1365</v>
       </c>
       <c r="E61" s="1">
-        <v>0</v>
+        <v>1275</v>
       </c>
       <c r="F61" s="1">
-        <v>10303</v>
+        <v>11505</v>
       </c>
       <c r="G61" s="1">
-        <v>10267</v>
+        <v>10589</v>
       </c>
       <c r="H61" s="1">
-        <v>9695</v>
+        <v>7130</v>
       </c>
       <c r="I61" s="1">
-        <v>9730</v>
+        <v>8136</v>
       </c>
       <c r="J61" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K61" s="1">
-        <v>0</v>
+        <v>9144</v>
       </c>
       <c r="L61" s="1">
-        <v>19425</v>
+        <v>15266</v>
       </c>
       <c r="M61" s="1">
-        <v>20033</v>
-      </c>
-      <c r="N61" s="1">
-        <v>0.48568571071383898</v>
-      </c>
-      <c r="O61" s="1">
-        <v>0.50088761095136802</v>
-      </c>
-      <c r="P61" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="9">
-        <v>1.03215942350502E-8</v>
+        <v>19641</v>
+      </c>
+      <c r="N61" s="6">
+        <v>0.40861884368308299</v>
+      </c>
+      <c r="O61" s="6">
+        <v>0.52572269807280503</v>
+      </c>
+      <c r="P61" s="6">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="Q61" s="1">
+        <v>2.37261997343352E-273</v>
       </c>
       <c r="R61" s="1">
-        <v>0.72257296777128599</v>
+        <v>2.6853921575111902E-23</v>
       </c>
       <c r="S61" s="1" t="b">
         <v>0</v>
       </c>
       <c r="T61" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V61" s="1">
         <f t="shared" si="4"/>
         <v>40000</v>
       </c>
     </row>
-    <row r="62" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="Q62" s="9"/>
-    </row>
-    <row r="63" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="Q63" s="9"/>
-    </row>
-    <row r="64" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q64" s="9"/>
-    </row>
-    <row r="65" spans="1:24" s="4" customFormat="1" ht="15.75" collapsed="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B65" s="4">
-        <v>0</v>
-      </c>
-      <c r="C65" s="4">
-        <v>0</v>
-      </c>
-      <c r="D65" s="4">
-        <v>2769</v>
-      </c>
-      <c r="E65" s="4">
-        <v>4041</v>
-      </c>
-      <c r="F65" s="4">
-        <v>30797</v>
-      </c>
-      <c r="G65" s="4">
-        <v>19990</v>
-      </c>
-      <c r="H65" s="4">
-        <v>16434</v>
-      </c>
-      <c r="I65" s="4">
-        <v>25969</v>
-      </c>
-      <c r="J65" s="4">
-        <v>0</v>
-      </c>
-      <c r="K65" s="4">
-        <v>2711</v>
-      </c>
-      <c r="L65" s="4">
-        <v>42403</v>
-      </c>
-      <c r="M65" s="4">
-        <v>56766</v>
-      </c>
-      <c r="N65" s="5">
-        <v>0.45501663268591053</v>
-      </c>
-      <c r="O65" s="5">
-        <v>0.60914261186822616</v>
-      </c>
-      <c r="P65" s="5">
-        <v>6.8099999999999994E-2</v>
-      </c>
-      <c r="Q65" s="4">
-        <v>4.7047778954509411E-166</v>
-      </c>
-      <c r="R65" s="4">
-        <v>0</v>
-      </c>
-      <c r="S65" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="T65" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="V65" s="4">
-        <f t="shared" ref="V65" si="5">SUM(B65:I65)</f>
+    <row r="62" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B62" s="1">
+        <v>0</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1776</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1806</v>
+      </c>
+      <c r="F62" s="1">
+        <v>11429</v>
+      </c>
+      <c r="G62" s="1">
+        <v>10667</v>
+      </c>
+      <c r="H62" s="1">
+        <v>6795</v>
+      </c>
+      <c r="I62" s="1">
+        <v>7527</v>
+      </c>
+      <c r="J62" s="1">
+        <v>0</v>
+      </c>
+      <c r="K62" s="1">
+        <v>15122</v>
+      </c>
+      <c r="L62" s="1">
+        <v>14322</v>
+      </c>
+      <c r="M62" s="1">
+        <v>18956</v>
+      </c>
+      <c r="N62" s="6">
+        <v>0.39326706573672299</v>
+      </c>
+      <c r="O62" s="6">
+        <v>0.52051183480696295</v>
+      </c>
+      <c r="P62" s="6">
+        <v>8.9550000000000005E-2</v>
+      </c>
+      <c r="Q62" s="1">
+        <v>0</v>
+      </c>
+      <c r="R62" s="1">
+        <v>4.9273536799782803E-15</v>
+      </c>
+      <c r="S62" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T62" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V62" s="1">
+        <f t="shared" si="4"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B63" s="1">
+        <v>0</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1445</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1460</v>
+      </c>
+      <c r="F63" s="1">
+        <v>11817</v>
+      </c>
+      <c r="G63" s="1">
+        <v>10814</v>
+      </c>
+      <c r="H63" s="1">
+        <v>6738</v>
+      </c>
+      <c r="I63" s="1">
+        <v>7726</v>
+      </c>
+      <c r="J63" s="1">
+        <v>0</v>
+      </c>
+      <c r="K63" s="1">
+        <v>14860</v>
+      </c>
+      <c r="L63" s="1">
+        <v>14464</v>
+      </c>
+      <c r="M63" s="1">
+        <v>19543</v>
+      </c>
+      <c r="N63" s="6">
+        <v>0.38991777867637101</v>
+      </c>
+      <c r="O63" s="6">
+        <v>0.52683650087612799</v>
+      </c>
+      <c r="P63" s="6">
+        <v>7.2624999999999995E-2</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>0</v>
+      </c>
+      <c r="R63" s="1">
+        <v>4.7704508339394697E-25</v>
+      </c>
+      <c r="S63" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T63" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V63" s="1">
+        <f t="shared" si="4"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B64" s="1">
+        <v>0</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1">
+        <v>2307</v>
+      </c>
+      <c r="E64" s="1">
+        <v>2161</v>
+      </c>
+      <c r="F64" s="1">
+        <v>11461</v>
+      </c>
+      <c r="G64" s="1">
+        <v>10993</v>
+      </c>
+      <c r="H64" s="1">
+        <v>6232</v>
+      </c>
+      <c r="I64" s="1">
+        <v>6846</v>
+      </c>
+      <c r="J64" s="1">
+        <v>0</v>
+      </c>
+      <c r="K64" s="1">
+        <v>23947</v>
+      </c>
+      <c r="L64" s="1">
+        <v>13078</v>
+      </c>
+      <c r="M64" s="1">
+        <v>18307</v>
+      </c>
+      <c r="N64" s="6">
+        <v>0.368062591466846</v>
+      </c>
+      <c r="O64" s="6">
+        <v>0.51522571203422196</v>
+      </c>
+      <c r="P64" s="6">
+        <v>0.11169999999999999</v>
+      </c>
+      <c r="Q64" s="1">
+        <v>0</v>
+      </c>
+      <c r="R64" s="1">
+        <v>9.4635611994614197E-9</v>
+      </c>
+      <c r="S64" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T64" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="V64" s="1">
+        <f t="shared" si="4"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>3531</v>
+      </c>
+      <c r="E65">
+        <v>3557</v>
+      </c>
+      <c r="F65">
+        <v>24426</v>
+      </c>
+      <c r="G65">
+        <v>22083</v>
+      </c>
+      <c r="H65">
+        <v>22043</v>
+      </c>
+      <c r="I65">
+        <v>24360</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>24231</v>
+      </c>
+      <c r="L65">
+        <v>46403</v>
+      </c>
+      <c r="M65">
+        <v>48786</v>
+      </c>
+      <c r="N65" s="14">
+        <v>0.49942956776304398</v>
+      </c>
+      <c r="O65" s="14">
+        <v>0.52507749268124604</v>
+      </c>
+      <c r="P65" s="14">
+        <v>7.0879999999999999E-2</v>
+      </c>
+      <c r="Q65">
+        <v>0.72802624552885997</v>
+      </c>
+      <c r="R65">
+        <v>9.1963093237986401E-53</v>
+      </c>
+      <c r="S65" t="b">
+        <v>1</v>
+      </c>
+      <c r="T65" t="b">
+        <v>0</v>
+      </c>
+      <c r="V65" s="1">
+        <f t="shared" si="4"/>
         <v>100000</v>
       </c>
-      <c r="X65" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="66" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="N66" s="6"/>
-      <c r="O66" s="6"/>
-      <c r="P66" s="6"/>
-    </row>
-    <row r="67" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B67" s="1">
-        <v>2</v>
-      </c>
-      <c r="C67" s="1">
-        <v>0</v>
-      </c>
-      <c r="D67" s="1">
-        <v>1574</v>
-      </c>
-      <c r="E67" s="1">
-        <v>1617</v>
-      </c>
-      <c r="F67" s="1">
-        <v>11407</v>
-      </c>
-      <c r="G67" s="1">
-        <v>9020</v>
-      </c>
-      <c r="H67" s="1">
-        <v>7017</v>
-      </c>
-      <c r="I67" s="1">
-        <v>9363</v>
-      </c>
-      <c r="J67" s="1">
-        <v>2</v>
-      </c>
-      <c r="K67" s="1">
-        <v>1920</v>
-      </c>
-      <c r="L67" s="1">
-        <v>16380</v>
-      </c>
-      <c r="M67" s="1">
-        <v>20770</v>
-      </c>
-      <c r="N67" s="6">
-        <v>0.44502404433939102</v>
-      </c>
-      <c r="O67" s="6">
-        <v>0.56429483522156099</v>
-      </c>
-      <c r="P67" s="6">
-        <v>7.9774999999999999E-2</v>
-      </c>
-      <c r="Q67" s="1">
-        <v>8.9459058894409597E-99</v>
-      </c>
-      <c r="R67" s="1">
-        <v>2.23877033334065E-134</v>
-      </c>
-      <c r="S67" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="T67" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="V67" s="1">
-        <f t="shared" ref="V67:V73" si="6">SUM(B67:I67)</f>
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B68" s="1">
-        <v>0</v>
-      </c>
-      <c r="C68" s="1">
-        <v>0</v>
-      </c>
-      <c r="D68" s="1">
-        <v>1665</v>
-      </c>
-      <c r="E68" s="1">
-        <v>1687</v>
-      </c>
-      <c r="F68" s="1">
-        <v>11231</v>
-      </c>
-      <c r="G68" s="1">
-        <v>8900</v>
-      </c>
-      <c r="H68" s="1">
-        <v>7104</v>
-      </c>
-      <c r="I68" s="1">
-        <v>9413</v>
-      </c>
-      <c r="J68" s="1">
-        <v>0</v>
-      </c>
-      <c r="K68" s="1">
-        <v>2296</v>
-      </c>
-      <c r="L68" s="1">
-        <v>16517</v>
-      </c>
-      <c r="M68" s="1">
-        <v>20644</v>
-      </c>
-      <c r="N68" s="6">
-        <v>0.45069308000000002</v>
-      </c>
-      <c r="O68" s="6">
-        <v>0.563304955</v>
-      </c>
-      <c r="P68" s="6">
-        <v>8.3799999999999999E-2</v>
-      </c>
-      <c r="Q68" s="1">
-        <v>1.72E-79</v>
-      </c>
-      <c r="R68" s="1">
-        <v>8.8999999999999997E-130</v>
-      </c>
-      <c r="S68" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="T68" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="V68" s="1">
-        <f t="shared" si="6"/>
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B69" s="1">
-        <v>0</v>
-      </c>
-      <c r="C69" s="1">
-        <v>0</v>
-      </c>
-      <c r="D69" s="1">
-        <v>1365</v>
-      </c>
-      <c r="E69" s="1">
-        <v>1275</v>
-      </c>
-      <c r="F69" s="1">
-        <v>11505</v>
-      </c>
-      <c r="G69" s="1">
-        <v>10589</v>
-      </c>
-      <c r="H69" s="1">
-        <v>7130</v>
-      </c>
-      <c r="I69" s="1">
-        <v>8136</v>
-      </c>
-      <c r="J69" s="1">
-        <v>0</v>
-      </c>
-      <c r="K69" s="1">
-        <v>9144</v>
-      </c>
-      <c r="L69" s="1">
-        <v>15266</v>
-      </c>
-      <c r="M69" s="1">
-        <v>19641</v>
-      </c>
-      <c r="N69" s="6">
-        <v>0.40861884368308299</v>
-      </c>
-      <c r="O69" s="6">
-        <v>0.52572269807280503</v>
-      </c>
-      <c r="P69" s="6">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="Q69" s="1">
-        <v>2.37261997343352E-273</v>
-      </c>
-      <c r="R69" s="1">
-        <v>2.6853921575111902E-23</v>
-      </c>
-      <c r="S69" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="T69" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="V69" s="1">
-        <f t="shared" si="6"/>
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="70" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B70" s="1">
-        <v>0</v>
-      </c>
-      <c r="C70" s="1">
-        <v>0</v>
-      </c>
-      <c r="D70" s="1">
-        <v>1776</v>
-      </c>
-      <c r="E70" s="1">
-        <v>1806</v>
-      </c>
-      <c r="F70" s="1">
-        <v>11429</v>
-      </c>
-      <c r="G70" s="1">
-        <v>10667</v>
-      </c>
-      <c r="H70" s="1">
-        <v>6795</v>
-      </c>
-      <c r="I70" s="1">
-        <v>7527</v>
-      </c>
-      <c r="J70" s="1">
-        <v>0</v>
-      </c>
-      <c r="K70" s="1">
-        <v>15122</v>
-      </c>
-      <c r="L70" s="1">
-        <v>14322</v>
-      </c>
-      <c r="M70" s="1">
-        <v>18956</v>
-      </c>
-      <c r="N70" s="6">
-        <v>0.39326706573672299</v>
-      </c>
-      <c r="O70" s="6">
-        <v>0.52051183480696295</v>
-      </c>
-      <c r="P70" s="6">
-        <v>8.9550000000000005E-2</v>
-      </c>
-      <c r="Q70" s="1">
-        <v>0</v>
-      </c>
-      <c r="R70" s="1">
-        <v>4.9273536799782803E-15</v>
-      </c>
-      <c r="S70" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="T70" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="V70" s="1">
-        <f t="shared" si="6"/>
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B71" s="1">
-        <v>0</v>
-      </c>
-      <c r="C71" s="1">
-        <v>0</v>
-      </c>
-      <c r="D71" s="1">
-        <v>1445</v>
-      </c>
-      <c r="E71" s="1">
-        <v>1460</v>
-      </c>
-      <c r="F71" s="1">
-        <v>11817</v>
-      </c>
-      <c r="G71" s="1">
-        <v>10814</v>
-      </c>
-      <c r="H71" s="1">
-        <v>6738</v>
-      </c>
-      <c r="I71" s="1">
-        <v>7726</v>
-      </c>
-      <c r="J71" s="1">
-        <v>0</v>
-      </c>
-      <c r="K71" s="1">
-        <v>14860</v>
-      </c>
-      <c r="L71" s="1">
-        <v>14464</v>
-      </c>
-      <c r="M71" s="1">
-        <v>19543</v>
-      </c>
-      <c r="N71" s="6">
-        <v>0.38991777867637101</v>
-      </c>
-      <c r="O71" s="6">
-        <v>0.52683650087612799</v>
-      </c>
-      <c r="P71" s="6">
-        <v>7.2624999999999995E-2</v>
-      </c>
-      <c r="Q71" s="1">
-        <v>0</v>
-      </c>
-      <c r="R71" s="1">
-        <v>4.7704508339394697E-25</v>
-      </c>
-      <c r="S71" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="T71" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="V71" s="1">
-        <f t="shared" si="6"/>
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B72" s="1">
-        <v>0</v>
-      </c>
-      <c r="C72" s="1">
-        <v>0</v>
-      </c>
-      <c r="D72" s="1">
-        <v>2307</v>
-      </c>
-      <c r="E72" s="1">
-        <v>2161</v>
-      </c>
-      <c r="F72" s="1">
-        <v>11461</v>
-      </c>
-      <c r="G72" s="1">
-        <v>10993</v>
-      </c>
-      <c r="H72" s="1">
-        <v>6232</v>
-      </c>
-      <c r="I72" s="1">
-        <v>6846</v>
-      </c>
-      <c r="J72" s="1">
-        <v>0</v>
-      </c>
-      <c r="K72" s="1">
-        <v>23947</v>
-      </c>
-      <c r="L72" s="1">
-        <v>13078</v>
-      </c>
-      <c r="M72" s="1">
-        <v>18307</v>
-      </c>
-      <c r="N72" s="6">
-        <v>0.368062591466846</v>
-      </c>
-      <c r="O72" s="6">
-        <v>0.51522571203422196</v>
-      </c>
-      <c r="P72" s="6">
-        <v>0.11169999999999999</v>
-      </c>
-      <c r="Q72" s="1">
-        <v>0</v>
-      </c>
-      <c r="R72" s="1">
-        <v>9.4635611994614197E-9</v>
-      </c>
-      <c r="S72" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="T72" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="V72" s="1">
-        <f t="shared" si="6"/>
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B73">
-        <v>0</v>
-      </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-      <c r="D73">
-        <v>3531</v>
-      </c>
-      <c r="E73">
-        <v>3557</v>
-      </c>
-      <c r="F73">
-        <v>24426</v>
-      </c>
-      <c r="G73">
-        <v>22083</v>
-      </c>
-      <c r="H73">
-        <v>22043</v>
-      </c>
-      <c r="I73">
-        <v>24360</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="K73">
-        <v>24231</v>
-      </c>
-      <c r="L73">
-        <v>46403</v>
-      </c>
-      <c r="M73">
-        <v>48786</v>
-      </c>
-      <c r="N73" s="15">
-        <v>0.49942956776304398</v>
-      </c>
-      <c r="O73" s="15">
-        <v>0.52507749268124604</v>
-      </c>
-      <c r="P73" s="15">
-        <v>7.0879999999999999E-2</v>
-      </c>
-      <c r="Q73">
-        <v>0.72802624552885997</v>
-      </c>
-      <c r="R73">
-        <v>9.1963093237986401E-53</v>
-      </c>
-      <c r="S73" t="b">
-        <v>1</v>
-      </c>
-      <c r="T73" t="b">
-        <v>0</v>
-      </c>
-      <c r="V73" s="1">
-        <f t="shared" si="6"/>
-        <v>100000</v>
-      </c>
-      <c r="X73" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="74" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+      <c r="X65" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="X29:AC29"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:C3">
-    <cfRule type="cellIs" dxfId="27" priority="112" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="112" operator="greaterThan">
       <formula>1000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="113" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="113" operator="greaterThan">
       <formula>5000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:C10 B12:C22 B24:C24 B29:C50 B52:C52">
-    <cfRule type="cellIs" dxfId="25" priority="103" operator="greaterThan">
+  <conditionalFormatting sqref="B5:C10 B12:C22 B24:C24 B29:C54 B56:C56">
+    <cfRule type="cellIs" dxfId="16" priority="103" operator="greaterThan">
       <formula>5000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:C63">
-    <cfRule type="cellIs" dxfId="24" priority="9" operator="greaterThan">
+  <conditionalFormatting sqref="B5:C56">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="greaterThan">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B54:C54">
-    <cfRule type="cellIs" dxfId="23" priority="131" operator="greaterThan">
+  <conditionalFormatting sqref="B57:C62">
+    <cfRule type="cellIs" dxfId="14" priority="58" operator="greaterThan">
+      <formula>1000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58:C62">
+    <cfRule type="cellIs" dxfId="13" priority="59" operator="greaterThan">
       <formula>5000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B65:C70">
-    <cfRule type="cellIs" dxfId="22" priority="58" operator="greaterThan">
-      <formula>1000</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B66:C70">
-    <cfRule type="cellIs" dxfId="21" priority="59" operator="greaterThan">
-      <formula>5000</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L3 L29:L50 L52">
-    <cfRule type="cellIs" dxfId="20" priority="114" operator="lessThan">
+  <conditionalFormatting sqref="L3 L29:L54 L56">
+    <cfRule type="cellIs" dxfId="12" priority="114" operator="lessThan">
       <formula>8000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5:L10 L12:L22 L24 L54">
-    <cfRule type="cellIs" dxfId="19" priority="142" operator="lessThan">
+  <conditionalFormatting sqref="L5:L10 L12:L22 L24">
+    <cfRule type="cellIs" dxfId="11" priority="142" operator="lessThan">
       <formula>8000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L66:L73">
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="lessThan">
+  <conditionalFormatting sqref="L58:L65">
+    <cfRule type="cellIs" dxfId="10" priority="20" operator="lessThan">
       <formula>8000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3:O3">
-    <cfRule type="cellIs" dxfId="17" priority="108" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="N3:O3 N5:O65">
+    <cfRule type="cellIs" dxfId="9" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0.4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="109" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="109" stopIfTrue="1" operator="greaterThan">
       <formula>0.6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="110" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="110" stopIfTrue="1" operator="lessThan">
       <formula>0.48</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="111" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="111" operator="greaterThan">
       <formula>0.52</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5:O73">
-    <cfRule type="cellIs" dxfId="13" priority="5" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="P3 P5:P65">
+    <cfRule type="cellIs" dxfId="5" priority="105" operator="greaterThan">
       <formula>0.4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="6" stopIfTrue="1" operator="greaterThan">
-      <formula>0.6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="7" stopIfTrue="1" operator="lessThan">
-      <formula>0.48</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="greaterThan">
-      <formula>0.52</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3">
-    <cfRule type="cellIs" dxfId="9" priority="105" operator="greaterThan">
-      <formula>0.4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="106" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="106" stopIfTrue="1" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="107" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="107" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P5:P73">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="greaterThan">
-      <formula>0.4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="greaterThan">
-      <formula>0.1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q73:R73">
-    <cfRule type="cellIs" dxfId="3" priority="10" operator="between">
+  <conditionalFormatting sqref="Q65:R65">
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="between">
       <formula>0.05</formula>
       <formula>0.15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="11" operator="between">
       <formula>0.001</formula>
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S3:T3">
-    <cfRule type="cellIs" dxfId="1" priority="104" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S5:T73">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="S3:T3 S5:T65">
+    <cfRule type="cellIs" dxfId="0" priority="104" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
